--- a/data/hotels_by_city/Houston/Houston_shard_27.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="687">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30171-d106170-Reviews-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Best-Western-Angleton-Inn.h43018.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1958 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r595429410-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>30171</t>
+  </si>
+  <si>
+    <t>106170</t>
+  </si>
+  <si>
+    <t>595429410</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>So-so experience with Best Western.</t>
+  </si>
+  <si>
+    <t>Room reservation for 2 queens was messed up but was corrected.  Outside was noisy as there were a lot of oil industry workers staying there.  Breakfast from 6 to 9 am was bland and completely wiped out by the workers with little left for late-comers.  Rooms were clean but hotel was over-priced and not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Room reservation for 2 queens was messed up but was corrected.  Outside was noisy as there were a lot of oil industry workers staying there.  Breakfast from 6 to 9 am was bland and completely wiped out by the workers with little left for late-comers.  Rooms were clean but hotel was over-priced and not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r589609630-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>589609630</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Next door to Walmart</t>
+  </si>
+  <si>
+    <t>The room was clean and worked for our needs. We had two vehicles instead of the usual one that gets declared during check-in and the hotel was accommodating with this unusual request. The hotel is right next to Walmart. This made for an economical dinner without having to drive or walk long distances. The front desk clerk was efficient and polite. We'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The room was clean and worked for our needs. We had two vehicles instead of the usual one that gets declared during check-in and the hotel was accommodating with this unusual request. The hotel is right next to Walmart. This made for an economical dinner without having to drive or walk long distances. The front desk clerk was efficient and polite. We'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r588514699-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>588514699</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Stayed a weekend while in town for a wedding</t>
+  </si>
+  <si>
+    <t>Hotel was clean and convenient. Prices were reasonable considering hotel rooms were not in abundance in the area. Dining choices are also limited unless you're ok with fast food choices. Would stay again if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r564362006-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>564362006</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>We had a family reunion in Angleton, TX on March 3rd.  There were 7 rooms booked at this hotel for our out of town guests.  I personally paid for 3 of them.  One of the rooms that I paid for the TV did not work.  When the front desk was called it was stated that the owners were out of town and nothing could be done.  An hour later they wanted to come to the room (almost midnight) to look at the TV.  No thanks.  The room I stayed in had a mold/musty smell that never went away for the 2 days I was there.  The floors were not vacuumed for the 2 days I was there.  The bed was so hard I think the floor might have been softer.  Never again at this Best Western.  And maybe not even a Best Western in another town.  Too much money spent for crappy rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>AStephens1012, Front Office Manager at Best Western Angleton Inn, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We had a family reunion in Angleton, TX on March 3rd.  There were 7 rooms booked at this hotel for our out of town guests.  I personally paid for 3 of them.  One of the rooms that I paid for the TV did not work.  When the front desk was called it was stated that the owners were out of town and nothing could be done.  An hour later they wanted to come to the room (almost midnight) to look at the TV.  No thanks.  The room I stayed in had a mold/musty smell that never went away for the 2 days I was there.  The floors were not vacuumed for the 2 days I was there.  The bed was so hard I think the floor might have been softer.  Never again at this Best Western.  And maybe not even a Best Western in another town.  Too much money spent for crappy rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r557916320-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>557916320</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>The desk clerk was very sarcastic at checkin when there was an incorrect name on the bill. Additionally the room had trash in the trash can and floor had not been vacuumed from prior guest. Breakfast was good with numerous options.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r547505992-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>547505992</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Odd/musty smell - had to go buy a candle. Needs better door locks. Changed rooms after spider crawled out on pillow- looked like brown recluse! Door bolt broken in that room.Front desk personnel not very friendly. Good Breakfast -  pretty good variety. Located next to Walmart which is handy! Comfy bed. Didnt use the pool but it looked nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>AStephens1012, Manager at Best Western Angleton Inn, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Odd/musty smell - had to go buy a candle. Needs better door locks. Changed rooms after spider crawled out on pillow- looked like brown recluse! Door bolt broken in that room.Front desk personnel not very friendly. Good Breakfast -  pretty good variety. Located next to Walmart which is handy! Comfy bed. Didnt use the pool but it looked nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r544899313-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>544899313</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Great customer service and caring staff!</t>
+  </si>
+  <si>
+    <t>The entire staff from the front desk to house keeping always had a smile and willing to go an extra mile to make your stay a wonderful experience. The hotel is extra clean and the breakfast selection is great. I would stay here over any other hotel in angleton!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>AStephens1012, Manager at Best Western Angleton Inn, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>The entire staff from the front desk to house keeping always had a smile and willing to go an extra mile to make your stay a wonderful experience. The hotel is extra clean and the breakfast selection is great. I would stay here over any other hotel in angleton!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r529510584-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>529510584</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Best Western Angleton Inn has a good variety of breakfast, fast wifi, and an eager to please staff! The check in/out process is fast and great. I always stay here and will continue to stay here as it's my home away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>AStephens1012, Manager at Best Western Angleton Inn, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Best Western Angleton Inn has a good variety of breakfast, fast wifi, and an eager to please staff! The check in/out process is fast and great. I always stay here and will continue to stay here as it's my home away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r517237377-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>517237377</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Unexpected Upgrade</t>
+  </si>
+  <si>
+    <t>I actually meant to book my stay at the BW-Clute location, but it wasn’t a big deal. When I tried booking online, the standard single king room I wanted was not available. I had to book a standard double queen room - after checking in and making my way to my room, I noticed I’d been unexpectedly upgraded to a single king suite, and not charged extra for it. I was really grateful and surprised. The room was fantastic, as well as the staff, and we really loved that they welcomed our (housebroken) dogs for a very small fee. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>AStephens1012, Manager at Best Western Angleton Inn, responded to this reviewResponded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>I actually meant to book my stay at the BW-Clute location, but it wasn’t a big deal. When I tried booking online, the standard single king room I wanted was not available. I had to book a standard double queen room - after checking in and making my way to my room, I noticed I’d been unexpectedly upgraded to a single king suite, and not charged extra for it. I was really grateful and surprised. The room was fantastic, as well as the staff, and we really loved that they welcomed our (housebroken) dogs for a very small fee. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r503053051-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>503053051</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>The staff were friendly and accommodating, the breakfast was hot and fresh, having Direct TV in the room and HBO channels to choose from was great, and the internet was fast. I will definitely stay at this location again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>AStephens1012, Front Office Manager at Best Western Angleton Inn, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>The staff were friendly and accommodating, the breakfast was hot and fresh, having Direct TV in the room and HBO channels to choose from was great, and the internet was fast. I will definitely stay at this location again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r497532066-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>497532066</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>Overall a comfortable stay! Pillows were a little flat, but bed was comfortable. Room was clean. Quiet. A.c. very cold. Disnt eat breakfast, but the front desk was very nice. Check in was easy as was check out!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Overall a comfortable stay! Pillows were a little flat, but bed was comfortable. Room was clean. Quiet. A.c. very cold. Disnt eat breakfast, but the front desk was very nice. Check in was easy as was check out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r495204215-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>495204215</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel so far in Angelton</t>
+  </si>
+  <si>
+    <t>Very Clean and friendly. It was our first time staying here. We will be back.They have a free breakfast but we did not get a chance to make it. The room was nice and quite. We could not here any outside noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Very Clean and friendly. It was our first time staying here. We will be back.They have a free breakfast but we did not get a chance to make it. The room was nice and quite. We could not here any outside noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r481082018-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>481082018</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>best choice in angleton but not many choices</t>
+  </si>
+  <si>
+    <t>Best Western had a great breakfast selection with a variety of fruit, including the easy to peel mandarin oranges.  The sink area in our room was dark which made make up application difficult.  It was also a bit crowded in that area since the rack for clothes hung there.  The room was basically clean and the bed was comfortable.  It was helpful to have the freezer for our ice pack.  When I made our reservation it was $85 AARP  Our stay was extended and the price had gone to $98 AARP so we did not opt to stay there but went to Galveston instead. We did not use it but there was a nice pool area with a waterfall  There was good water pressure, the room was quiet, and there was a desk as well as a table.  This hotel is the best choice in Angleton but the choices are very limited.  It is fine, but too expensive for the level of accommodation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Best Western had a great breakfast selection with a variety of fruit, including the easy to peel mandarin oranges.  The sink area in our room was dark which made make up application difficult.  It was also a bit crowded in that area since the rack for clothes hung there.  The room was basically clean and the bed was comfortable.  It was helpful to have the freezer for our ice pack.  When I made our reservation it was $85 AARP  Our stay was extended and the price had gone to $98 AARP so we did not opt to stay there but went to Galveston instead. We did not use it but there was a nice pool area with a waterfall  There was good water pressure, the room was quiet, and there was a desk as well as a table.  This hotel is the best choice in Angleton but the choices are very limited.  It is fine, but too expensive for the level of accommodation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r473259184-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>473259184</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Best Choice</t>
+  </si>
+  <si>
+    <t>Lately I have not stayed at Best Westerns but this one looked like the best choice for the area I was in. It's an older hotel and they are trying to remodel so it's under some construction. Later st dusk when checking in they were not very lit up as far as lighting goes so it was hard to tell if they were even open at first. The room they gave me was adequate but it still had a funky smell to it. The bed was not as comfortable as I like so I woke up to often and to early. There have Ben nicer BW's I've stayed at. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Lately I have not stayed at Best Westerns but this one looked like the best choice for the area I was in. It's an older hotel and they are trying to remodel so it's under some construction. Later st dusk when checking in they were not very lit up as far as lighting goes so it was hard to tell if they were even open at first. The room they gave me was adequate but it still had a funky smell to it. The bed was not as comfortable as I like so I woke up to often and to early. There have Ben nicer BW's I've stayed at. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r472557843-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>472557843</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>A good evening in Angleton</t>
+  </si>
+  <si>
+    <t>The Best Western in Angleton is a great choice if you are in the area.  Clean rooms, and a good complimentary breakfast make it a fine place to stay.  The only complaint would be the square bed pillows, which look good in the decor, but are not as practical for sleeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>The Best Western in Angleton is a great choice if you are in the area.  Clean rooms, and a good complimentary breakfast make it a fine place to stay.  The only complaint would be the square bed pillows, which look good in the decor, but are not as practical for sleeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r440154632-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>440154632</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t>The ongoing renovations are nice but with barely warm water, this stay was not great.    Call them about the hot water before you book here.And stay away from the 2nd floor on the back of the motel.  The walkway railing there is gone and they've piled construction material to make it even more dangerous. The bed was super comfortable and the TV was huge.  But the lack of hot water was also huge.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>The ongoing renovations are nice but with barely warm water, this stay was not great.    Call them about the hot water before you book here.And stay away from the 2nd floor on the back of the motel.  The walkway railing there is gone and they've piled construction material to make it even more dangerous. The bed was super comfortable and the TV was huge.  But the lack of hot water was also huge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r439414454-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>439414454</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Good service, staff helpful, they are working on upgrading the hotel at the Angleton location.  I have never went to the front desk with an inquiry that they weren't able to help me.  In Dallas the manager went out of her way to tell me about several nearby attractions she thought my granddaughters might like to attend.  (they are 15 and 10).  Then she went into detail about a bus line that ran near by that saved me a fortune in parking.  She made a recommendation for the Perot Museum which I had not even hear do before.  It turned out to be the best experience we have had at any of the museums we have seen.  They always have coffee on hand and their breakfast is OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Good service, staff helpful, they are working on upgrading the hotel at the Angleton location.  I have never went to the front desk with an inquiry that they weren't able to help me.  In Dallas the manager went out of her way to tell me about several nearby attractions she thought my granddaughters might like to attend.  (they are 15 and 10).  Then she went into detail about a bus line that ran near by that saved me a fortune in parking.  She made a recommendation for the Perot Museum which I had not even hear do before.  It turned out to be the best experience we have had at any of the museums we have seen.  They always have coffee on hand and their breakfast is OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r433443602-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>433443602</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Just another Hotel ..</t>
+  </si>
+  <si>
+    <t>Hotel is in need of rehab ...Breakfast less than desirable , Carpets were old but pretty clean ,, air conditioner unit was noisy .. Staff was pretty helpful but not real gung ho or enthusiastic about service ..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Hotel is in need of rehab ...Breakfast less than desirable , Carpets were old but pretty clean ,, air conditioner unit was noisy .. Staff was pretty helpful but not real gung ho or enthusiastic about service ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r402279477-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>402279477</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Confortable Hotel</t>
+  </si>
+  <si>
+    <t>We had a good time at this hotel.  The staff is very friendly and cooperative. The breakfast was good, but reduced. The pool was very clean. The room was clean but we felt some humidity in there. Generally, I think that this hotel is a good option to stay and enjoy in every occasion.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>We had a good time at this hotel.  The staff is very friendly and cooperative. The breakfast was good, but reduced. The pool was very clean. The room was clean but we felt some humidity in there. Generally, I think that this hotel is a good option to stay and enjoy in every occasion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r396641626-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>396641626</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Above Average...</t>
+  </si>
+  <si>
+    <t>...for what it is. A small, reasonably priced, motel on the main drag in a small town off the beaten path.Nice, clean, and comfortable with everything in good working order and repair. Nice, shaded, but small, pool area. Angleton really isn't on the way to anything (ok, it's between Houston and Freeport, but that's a day trip) and it isn't on an Interstate with tons of traffic. Most of the parking spaces were occupied by construction and oilpatch pickups. There's a WalMart next door. Snicker if you will, but that's a convenient catchall for a traveller. Also a selection of eateries, chains and local, stretch up and down Business 288.Pro Tip: Grab a beer or two and catch an amazing Texas sunset over the pretty prairie pasture out back of the motel. Recommendation to the staff: Place some simple outdoor furniture (and maybe an ashtray) back there along the currently empty back wall of the building. You don't have much special to offer, but that really is an unexpectedly aesthetic asset going untapped.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>...for what it is. A small, reasonably priced, motel on the main drag in a small town off the beaten path.Nice, clean, and comfortable with everything in good working order and repair. Nice, shaded, but small, pool area. Angleton really isn't on the way to anything (ok, it's between Houston and Freeport, but that's a day trip) and it isn't on an Interstate with tons of traffic. Most of the parking spaces were occupied by construction and oilpatch pickups. There's a WalMart next door. Snicker if you will, but that's a convenient catchall for a traveller. Also a selection of eateries, chains and local, stretch up and down Business 288.Pro Tip: Grab a beer or two and catch an amazing Texas sunset over the pretty prairie pasture out back of the motel. Recommendation to the staff: Place some simple outdoor furniture (and maybe an ashtray) back there along the currently empty back wall of the building. You don't have much special to offer, but that really is an unexpectedly aesthetic asset going untapped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r391405852-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>391405852</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>single-traveling, dog-loving, best place to stay!</t>
+  </si>
+  <si>
+    <t>if you travel with dogs, it's the most comfortable place to stay.  your dogs will have a large grassy area to stretch their 4 legs.there is also a Wal-Mart within walking distance....how gr8 is that?!?MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>if you travel with dogs, it's the most comfortable place to stay.  your dogs will have a large grassy area to stretch their 4 legs.there is also a Wal-Mart within walking distance....how gr8 is that?!?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r379772710-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>379772710</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Room was EXTREMELY musty smelling.  The owner or someone connected to the hotel had a large family event - playing children in the parking lot, cars parked along the curbs.  When we got there the room smelled so bad we left the door open for some fresh air and two men from this family group came upstairs, opened the room next to ours and walked back and forth in front of our door drinking their beer or cider or whatever it was.  This may seem typical behavior - if they were guests - they were not - and it annoyed me that they would act this way.  I was travelling for business with an associate, we are both female, so I really did not appreciate this behavior..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Room was EXTREMELY musty smelling.  The owner or someone connected to the hotel had a large family event - playing children in the parking lot, cars parked along the curbs.  When we got there the room smelled so bad we left the door open for some fresh air and two men from this family group came upstairs, opened the room next to ours and walked back and forth in front of our door drinking their beer or cider or whatever it was.  This may seem typical behavior - if they were guests - they were not - and it annoyed me that they would act this way.  I was travelling for business with an associate, we are both female, so I really did not appreciate this behavior..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r373966223-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>373966223</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Angleton, Texas</t>
+  </si>
+  <si>
+    <t>The hotel was clean and comfortable, however, NO WIFI AS ADVERTISED. In today's world of electronics, WIFI is essential for the guests.  I was located very close to the hotel office and still unable to receive their wifi signal.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean and comfortable, however, NO WIFI AS ADVERTISED. In today's world of electronics, WIFI is essential for the guests.  I was located very close to the hotel office and still unable to receive their wifi signal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r371625060-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>371625060</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Pleasant and helpful reception staff. Clean room with all facilities necessary including fridge and microwave.Very comfortable bed and beddingVery good breakfast including scrambled egg and sausage.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasant and helpful reception staff. Clean room with all facilities necessary including fridge and microwave.Very comfortable bed and beddingVery good breakfast including scrambled egg and sausage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r356702529-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>356702529</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>SUGAR FREE IS A HIT</t>
+  </si>
+  <si>
+    <t>WE HAD A NICE TIME. I feel that what help was that a breakfast they provide sugar free syrup..as diabetic that important.Pool was clean, they lights did not come on at first but we told them and they address it. It was nice and quite even though it was spring break...I was traveling with grandbabies and went to the beach. It is only 15 milies away but its straight shot.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>WE HAD A NICE TIME. I feel that what help was that a breakfast they provide sugar free syrup..as diabetic that important.Pool was clean, they lights did not come on at first but we told them and they address it. It was nice and quite even though it was spring break...I was traveling with grandbabies and went to the beach. It is only 15 milies away but its straight shot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r352283390-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>352283390</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Decent if you don't want to spend a little extra</t>
+  </si>
+  <si>
+    <t>The room itself was fine - beds were comfortable. Shower was fine. Decent hot breakfast. But the room smelled like smoke and it was supposed to be a non smoking room. It had the little non smoking plaque and all. Same for other family members rooms in other parts of the hotel. They all smelled bad so I didn't feel changing rooms would help. We sprayed and aired out as best we could, but as soon as the room was closed back up it smelled bad and definitely bothered our allergies. I wish we would have spent the extra and stayed at the la quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The room itself was fine - beds were comfortable. Shower was fine. Decent hot breakfast. But the room smelled like smoke and it was supposed to be a non smoking room. It had the little non smoking plaque and all. Same for other family members rooms in other parts of the hotel. They all smelled bad so I didn't feel changing rooms would help. We sprayed and aired out as best we could, but as soon as the room was closed back up it smelled bad and definitely bothered our allergies. I wish we would have spent the extra and stayed at the la quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r349133308-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>349133308</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Nice motel in Angleton</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 3 days.  The place is easy to find, right off of 288.  The check-in was easy, the folks are all nice.  The room is spacious - plenty of room in a standard King room.  There is a work table and a separate table with chairs for eating or just sitting.  Bed was comfortable.  The TV has a ton of channels and works perfectly.  There is also a nice refrigerator and microwave in the room.  Everything was clean, all the lights worked, etc.  The only drawback here is no elevator.Breakfast was very good.  They had scrambled eggs, sausage, waffles, bagels, muffins and sausage biscuits.  Juice, milk and coffee.  It was quite a surprise and welcome.Would stay here again in a New York minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 3 days.  The place is easy to find, right off of 288.  The check-in was easy, the folks are all nice.  The room is spacious - plenty of room in a standard King room.  There is a work table and a separate table with chairs for eating or just sitting.  Bed was comfortable.  The TV has a ton of channels and works perfectly.  There is also a nice refrigerator and microwave in the room.  Everything was clean, all the lights worked, etc.  The only drawback here is no elevator.Breakfast was very good.  They had scrambled eggs, sausage, waffles, bagels, muffins and sausage biscuits.  Juice, milk and coffee.  It was quite a surprise and welcome.Would stay here again in a New York minute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r331608639-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>331608639</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Overnight stop</t>
+  </si>
+  <si>
+    <t>Not great, but not awful either. A perfectly acceptable overnight stop. My room (a double) was clean and spacious but the air conditioning unit was noisy. The bed was comfortable and there was a reasonable choice for breakfast, although not as extensive as offered by comparable European establishments. No reason not to use.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Not great, but not awful either. A perfectly acceptable overnight stop. My room (a double) was clean and spacious but the air conditioning unit was noisy. The bed was comfortable and there was a reasonable choice for breakfast, although not as extensive as offered by comparable European establishments. No reason not to use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r329386157-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>329386157</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean, I came to visit family for thanksgiving and did not have any problems whatsoever, thumbs up! &amp; Walmart was right beside it and Kroger in front...restaurants very close, some are even walking distance. I enjoyed my stay, Thank you! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean, I came to visit family for thanksgiving and did not have any problems whatsoever, thumbs up! &amp; Walmart was right beside it and Kroger in front...restaurants very close, some are even walking distance. I enjoyed my stay, Thank you! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r328925582-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>328925582</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Best place to stay in the entire area</t>
+  </si>
+  <si>
+    <t>Great staff always willing to offer advice and help, clean rooms with plenty of space for luggage and relaxation, very safe environment, good, hearty breakfast, central location. Perfect place to stay for business or vacation..MoreShow less</t>
+  </si>
+  <si>
+    <t>Great staff always willing to offer advice and help, clean rooms with plenty of space for luggage and relaxation, very safe environment, good, hearty breakfast, central location. Perfect place to stay for business or vacation..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r325401308-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>325401308</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>great night sleep</t>
+  </si>
+  <si>
+    <t>I was here on an overnight trip for work.  I stay here often.  It is located near a few places to eat.  Will definitely stay here again. The rooms are comfortable and clean.  The breakfast items are usually out early for those that need to leave for work.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here on an overnight trip for work.  I stay here often.  It is located near a few places to eat.  Will definitely stay here again. The rooms are comfortable and clean.  The breakfast items are usually out early for those that need to leave for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r317452584-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>317452584</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>We have our own company and are frequently on call.  So we come and staycation at this hotel .  We come for the pool. The pool area is always clean and pool is well maintained.  There are very nice restaurants close by.  The staff even found my pool floats and stored them until we got back from a call.  The staff is always very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We have our own company and are frequently on call.  So we come and staycation at this hotel .  We come for the pool. The pool area is always clean and pool is well maintained.  There are very nice restaurants close by.  The staff even found my pool floats and stored them until we got back from a call.  The staff is always very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r307125779-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>307125779</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Better Pillows</t>
+  </si>
+  <si>
+    <t>The pillows were not of good quality. Room was very clean, tv was nice, there was a table and 2 chair to eat in the room which was very convenice, a study table, fridge &amp; microwave which we loved. Over all it was good - the pillows were just what made my experience crappy.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>The pillows were not of good quality. Room was very clean, tv was nice, there was a table and 2 chair to eat in the room which was very convenice, a study table, fridge &amp; microwave which we loved. Over all it was good - the pillows were just what made my experience crappy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r301663494-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>301663494</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returned again </t>
+  </si>
+  <si>
+    <t>I've been here many times, it's a nice motel and I really only have one gripe....I've got a lot of tattoos and work my you know what off, as do a lot of the folks who frequent this property.....I've hope the management knows their employees with tattoos do the same thing. MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been here many times, it's a nice motel and I really only have one gripe....I've got a lot of tattoos and work my you know what off, as do a lot of the folks who frequent this property.....I've hope the management knows their employees with tattoos do the same thing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r290120690-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>290120690</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Meh..</t>
+  </si>
+  <si>
+    <t>We had to stay in Angleton to attend a funeral, and based on the reviews, we decided to stay here. For the price, I had higher expectations. Staff was pleasant and check-in was easy. I was provided with a WiFi password but was never able to connect. Ended up with a smoking room because there wasn't anything else available. It smelled like a smoking room. No surprise there. The room was dated. The large dark green whirlpool tub in the room was a surprise. Not my thing, but it may appeal to some. The room was small but functional, everything appeared clean, but the carpet was old and probably the cause of the lingering smell of smoke. For the area, I think we made the best choice in hotels, but I would probably stay in a newer hotel in the Brazos area if I ever need to return, since the newer hotels offered comparable prices. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We had to stay in Angleton to attend a funeral, and based on the reviews, we decided to stay here. For the price, I had higher expectations. Staff was pleasant and check-in was easy. I was provided with a WiFi password but was never able to connect. Ended up with a smoking room because there wasn't anything else available. It smelled like a smoking room. No surprise there. The room was dated. The large dark green whirlpool tub in the room was a surprise. Not my thing, but it may appeal to some. The room was small but functional, everything appeared clean, but the carpet was old and probably the cause of the lingering smell of smoke. For the area, I think we made the best choice in hotels, but I would probably stay in a newer hotel in the Brazos area if I ever need to return, since the newer hotels offered comparable prices. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r289515530-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>289515530</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Clean and updated but noisy</t>
+  </si>
+  <si>
+    <t>Our room was updated and clean,the bed was comfortable, the staff was wonderful, the food and the pool were great but the air conditioner was so noisy that it interrupted our sleep. It could be that we are just not used to the noise from a wall unit but we experienced a very sleepless night.We were also able to hear conversations of people walking on the sidewalk outside our door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room was updated and clean,the bed was comfortable, the staff was wonderful, the food and the pool were great but the air conditioner was so noisy that it interrupted our sleep. It could be that we are just not used to the noise from a wall unit but we experienced a very sleepless night.We were also able to hear conversations of people walking on the sidewalk outside our door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r280539578-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>280539578</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>The place to stay!</t>
+  </si>
+  <si>
+    <t>Time and again, the Best Western Angleton Inn has met all our expectations.  The staff is friendly and helpful, rooms and property are clean and comfortable.  Close proximity to many different restaurants and services, I will continue to recommend this property to anyone travelling in the Angleton, Lake Jackson area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Time and again, the Best Western Angleton Inn has met all our expectations.  The staff is friendly and helpful, rooms and property are clean and comfortable.  Close proximity to many different restaurants and services, I will continue to recommend this property to anyone travelling in the Angleton, Lake Jackson area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r275209166-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>275209166</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>First Time</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this Best Western and it was VERY enjoyable... The staff were helpful and courteous and answered many questions I had about the immediate area. Houston was having terrible storms and the staff assured me of the safety of the facilities. The swimming pool was beautiful. It has a waterfall and fresh plants all around. I plan on using it more next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this Best Western and it was VERY enjoyable... The staff were helpful and courteous and answered many questions I had about the immediate area. Houston was having terrible storms and the staff assured me of the safety of the facilities. The swimming pool was beautiful. It has a waterfall and fresh plants all around. I plan on using it more next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r274943653-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>274943653</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay as usual</t>
+  </si>
+  <si>
+    <t>Customer Service, Room and Breakfast always excellent when I stay this Best Western.  The location is excellent - Walmart, Chili's, Popeye's, Kroger, Retail Shops, Banks, Local Restaurants (including fast food) is always a stone's throw away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Customer Service, Room and Breakfast always excellent when I stay this Best Western.  The location is excellent - Walmart, Chili's, Popeye's, Kroger, Retail Shops, Banks, Local Restaurants (including fast food) is always a stone's throw away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r270865012-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>270865012</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Confirmation Number Useless</t>
+  </si>
+  <si>
+    <t>The hotel is nice from the exterior and the interior.  Nothing to fancy, but not shabby.  The mattress is kind of hard, not very comfortable.  On the other hand, the service at this place is horrible.  I made my reservation via telephone. I was given a confirmation number after an exchange of credit card information. However, when I went to check in the employee told me that I did not have a room.  I repeated my confirmation number to her and she told me it did not mean anything.  This was a first for me and it shall be a last.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is nice from the exterior and the interior.  Nothing to fancy, but not shabby.  The mattress is kind of hard, not very comfortable.  On the other hand, the service at this place is horrible.  I made my reservation via telephone. I was given a confirmation number after an exchange of credit card information. However, when I went to check in the employee told me that I did not have a room.  I repeated my confirmation number to her and she told me it did not mean anything.  This was a first for me and it shall be a last.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r270075470-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>270075470</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>clean hotel</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean with updated rooms. The breakfast was a nice variety and presented in a lovely manner. The hotel staff was nice and professional. It was a good value for the area. We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice and clean with updated rooms. The breakfast was a nice variety and presented in a lovely manner. The hotel staff was nice and professional. It was a good value for the area. We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r266950697-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>266950697</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Unhappy Customer.</t>
+  </si>
+  <si>
+    <t>They NEED to give a Better Training for the employees on Front Desk and I Highly Recommend better maintenance on the carpets of the rooms the carpets of the room have a awful smell and they are sticky this is Very Gross. I don't think the Employees of the Front Desk of the Best Western Hotel Advise the New arrivals like a friendly remainder that they have other guess resting if they could be Gentle and Try Not to make Noise at there arrival to there room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>They NEED to give a Better Training for the employees on Front Desk and I Highly Recommend better maintenance on the carpets of the rooms the carpets of the room have a awful smell and they are sticky this is Very Gross. I don't think the Employees of the Front Desk of the Best Western Hotel Advise the New arrivals like a friendly remainder that they have other guess resting if they could be Gentle and Try Not to make Noise at there arrival to there room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r253465979-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>253465979</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>GREAT!</t>
+  </si>
+  <si>
+    <t>I traveled to Angleton for a family wedding.  This was a very clean hotel.  The bed were very comfortable with updated décor and furniture.  We also ordered late night pizza from next door and got our food rather quick.  My family and I will definitely stay here again.  Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded February 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2015</t>
+  </si>
+  <si>
+    <t>I traveled to Angleton for a family wedding.  This was a very clean hotel.  The bed were very comfortable with updated décor and furniture.  We also ordered late night pizza from next door and got our food rather quick.  My family and I will definitely stay here again.  Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r252345009-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>252345009</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Me and my family of 4 stayed here overnight and it was very accommodating. The food was acceptable and the overall experience was pleasant. I would recommend this hotel for anyone look for a good night rest in the small town of Angleton.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family of 4 stayed here overnight and it was very accommodating. The food was acceptable and the overall experience was pleasant. I would recommend this hotel for anyone look for a good night rest in the small town of Angleton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r250730844-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>250730844</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>great stay in home town</t>
+  </si>
+  <si>
+    <t>We were very pleased with this facility.  The appearance, cleanliness, comfort, service, and breakfast were outstanding.  We are thankful this hotel is available in our home town and we look forward to staying here on future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We were very pleased with this facility.  The appearance, cleanliness, comfort, service, and breakfast were outstanding.  We are thankful this hotel is available in our home town and we look forward to staying here on future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r246133957-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>246133957</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Clean and Convenient</t>
+  </si>
+  <si>
+    <t>I tried to price match with the La Quinta in town since Best Western is half the price, and the LQ is closer to the family we were visiting. Not only LQ not lower their price, but BW had a higher rating. I'm really glad we chose the Best Western. It was extremely clean and easier to get in and out of than I expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2015</t>
+  </si>
+  <si>
+    <t>I tried to price match with the La Quinta in town since Best Western is half the price, and the LQ is closer to the family we were visiting. Not only LQ not lower their price, but BW had a higher rating. I'm really glad we chose the Best Western. It was extremely clean and easier to get in and out of than I expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r245884028-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>245884028</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel for comfort and price</t>
+  </si>
+  <si>
+    <t>Very nice stay at this hotel.  Refrigerator was a little noisy but other than that room was quiet, bed comfortable and great shower with plenty of hot water.  Nice breakfast too.  WalMart within close walking distance away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice stay at this hotel.  Refrigerator was a little noisy but other than that room was quiet, bed comfortable and great shower with plenty of hot water.  Nice breakfast too.  WalMart within close walking distance away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r244739370-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>244739370</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>No highs and no lows</t>
+  </si>
+  <si>
+    <t>Having planned to camp on Galveston Island before it stared to rain we were glad to find the BW.The room was clean and spacious with the normal TV, refrigerator and such. The bed was a bit hard as others have noted but beats a wet camping night. Over all an average stay for the money. I would offer one word of caution however. Check the expiration dates on any yogurt you may want at the breakfast. We ended up with expired yogurt and had to throw it away :(MoreShow less</t>
+  </si>
+  <si>
+    <t>Having planned to camp on Galveston Island before it stared to rain we were glad to find the BW.The room was clean and spacious with the normal TV, refrigerator and such. The bed was a bit hard as others have noted but beats a wet camping night. Over all an average stay for the money. I would offer one word of caution however. Check the expiration dates on any yogurt you may want at the breakfast. We ended up with expired yogurt and had to throw it away :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r239008251-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>239008251</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>An Excellent Place to Stay</t>
+  </si>
+  <si>
+    <t>When we visit family in Angleton, Texas, we stay at the Best Western.  The staff is friendly and very accomodating.  The rooms are clean and updated.  The free breakfast is excellent with plenty of choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>When we visit family in Angleton, Texas, we stay at the Best Western.  The staff is friendly and very accomodating.  The rooms are clean and updated.  The free breakfast is excellent with plenty of choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r232483568-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>232483568</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Very Happy</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful. The hotel was very clean inside and out. Close to shopping and dinning . Would stay there again. The breakfast bar was good but would like to have had bisquit &amp; gravy . Some people are allergic to eggs. So that would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful. The hotel was very clean inside and out. Close to shopping and dinning . Would stay there again. The breakfast bar was good but would like to have had bisquit &amp; gravy . Some people are allergic to eggs. So that would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r232169938-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>232169938</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Disappointed Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at numerous Best Western hotels and I have always been very satisfied, however my experience at this hotel in Angelton, Texas was a disappointment.  My main complaint was the severe mold smell in the room.  I now realize I should have requested another room, but I had hoped with the airconditioning running constantly all night that the mold and high humidity would have diminished, but it only got worse.  My husband and I hardly slept.  The sheets even felt wet.  The room was nicely decorated and the breakfast was good.  The staff were very nice too.  This experience will not keep me from staying at a Best Western in the future, but I certainly will not stay at this hotel again.  I have family in the area and I will seek accomodations at another hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at numerous Best Western hotels and I have always been very satisfied, however my experience at this hotel in Angelton, Texas was a disappointment.  My main complaint was the severe mold smell in the room.  I now realize I should have requested another room, but I had hoped with the airconditioning running constantly all night that the mold and high humidity would have diminished, but it only got worse.  My husband and I hardly slept.  The sheets even felt wet.  The room was nicely decorated and the breakfast was good.  The staff were very nice too.  This experience will not keep me from staying at a Best Western in the future, but I certainly will not stay at this hotel again.  I have family in the area and I will seek accomodations at another hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r221249801-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>221249801</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>The front desk staff went out of thier way to help with all our needs. We had several rooms and were put close together and the hotel staff were readily available to help us at all times. The rooms were very clean and beds comfortable. The hotel was located right beside Walmart which was very convenient for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>The front desk staff went out of thier way to help with all our needs. We had several rooms and were put close together and the hotel staff were readily available to help us at all times. The rooms were very clean and beds comfortable. The hotel was located right beside Walmart which was very convenient for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r220785490-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>220785490</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>this hotel, although not a Best Western Plus is extremely clean and fresh.  The price is very good and location is excellent.  I would stay at the hotel again.  The price is excellent and the easy access to Highway 288 is great to go either north toward Houston or south to the water!MoreShow less</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>this hotel, although not a Best Western Plus is extremely clean and fresh.  The price is very good and location is excellent.  I would stay at the hotel again.  The price is excellent and the easy access to Highway 288 is great to go either north toward Houston or south to the water!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r217306633-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>217306633</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel on our trip to TX. Room was clean and well stocked. WiFi was fast unlike some other places we stayed in. Staff was very helpful and breakfast was good. Kids loved the swimming pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Dipmala P, General Manager at Best Western Angleton Inn, responded to this reviewResponded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel on our trip to TX. Room was clean and well stocked. WiFi was fast unlike some other places we stayed in. Staff was very helpful and breakfast was good. Kids loved the swimming pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r216326288-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>216326288</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Clean, Queit and Friendly</t>
+  </si>
+  <si>
+    <t>I always stay her when working in Freeport because it's quitter than the hotels nearer to the chemical plant I work at. The staff are very friendly and helpful and the room are in great shape, very clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r215811720-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>215811720</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Best hotel I've stayed at for under $100</t>
+  </si>
+  <si>
+    <t>I'm going to be honest, I like to think of myself as a basic needs guy but tend to avoid hotels under $100 a night when traveling for work due to past experiences with shady hotels/unacceptable accommodations. This was my first visit to Angleton so I didn't know what my options were beyond the trip advisor ratings, and didn't think to ask any colleagues for advice. I took a chance with the Best Western (I'll be honest at $80 a night I was a little put off and was concerned it'd be in a bad part of town or have something else wrong with it. At check in Eduardo was great, super nice and genuine. The room was clean, as in I'd be happy if my house was this clean. It was obvious the employees/owners took pride in the hotel. The only 'complaint' I have - if you could call it that is the light bulbs were all the curly florescent bulbs which I dont care for, they give me a head ache but even that was a non-issue. Also wish I would have had time to partake in the breakfast buffet, it smelled great at check out and Eduardo made me hungry just talking about it. Wifi was great too - fast and free unlike most hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm going to be honest, I like to think of myself as a basic needs guy but tend to avoid hotels under $100 a night when traveling for work due to past experiences with shady hotels/unacceptable accommodations. This was my first visit to Angleton so I didn't know what my options were beyond the trip advisor ratings, and didn't think to ask any colleagues for advice. I took a chance with the Best Western (I'll be honest at $80 a night I was a little put off and was concerned it'd be in a bad part of town or have something else wrong with it. At check in Eduardo was great, super nice and genuine. The room was clean, as in I'd be happy if my house was this clean. It was obvious the employees/owners took pride in the hotel. The only 'complaint' I have - if you could call it that is the light bulbs were all the curly florescent bulbs which I dont care for, they give me a head ache but even that was a non-issue. Also wish I would have had time to partake in the breakfast buffet, it smelled great at check out and Eduardo made me hungry just talking about it. Wifi was great too - fast and free unlike most hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r215258810-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>215258810</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay...</t>
+  </si>
+  <si>
+    <t>Stayed at this Best Western for a 5 day vacation and loved it. There's a Wal-Mart right next door and plenty of restaurants/fast food places around, but still has a small town feel. Angleton is a 20ish minute drive from Surfside Beach, which is the reason we booked here, but also not too far from Houston. The rooms were clean upon arrival and after cleanings, the breakfast was pretty decent and the staff was very nice and accommodating. I did a lot of research before booking and I definitely recommend this hotel to anyone staying in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r214427602-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>214427602</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>good location, nice room, nice pool , very convenient to  hwy 288, near to Houston, nice appearance, close to restaurants, deffinately will stay there again, liked the hotel staff and the atmosphere, the soda and ice machines are in a good place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r214151415-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>214151415</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Great, inexpensive hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Best Western in Angleton a week ago for a family function.  I've stayed in many Best Westerns in the past, on birding trips (my birding trip travel partner is a member of their frequent guest program and so always wanted to stay at Best Westerns, and I can say that many of them were just awful).  But this one was totally different.  This hotel is 13 years old, but our room looked like it was brand new.  It was spotless and everything was in great shape -- flat screen TV, a microwave and small fridge (which we didn't use), and the bed was great -- king-size and comfortable, and it didn't have the dreaded polyester bedspread which slides down onto the floor.  It had nice, crisp white sheets and nice pillows, which all looked great.  The bathroom counter and the shower walls looked like granite -- maybe they weren't, but they looked very nice.  The shower was super clean, a big plus in my book.  Nice, fluffy white towels.  The air conditioning worked amazingly well -- we got our room really cold (it was horribly hot and humid outside).  All this, and our room was only $75 plus tax!
+We mentioned to the desk clerk when we checked out how nice the hotel was, and he said that the owner takes great pride in keeping everything in tip-top shape and that he does...My husband and I stayed at this Best Western in Angleton a week ago for a family function.  I've stayed in many Best Westerns in the past, on birding trips (my birding trip travel partner is a member of their frequent guest program and so always wanted to stay at Best Westerns, and I can say that many of them were just awful).  But this one was totally different.  This hotel is 13 years old, but our room looked like it was brand new.  It was spotless and everything was in great shape -- flat screen TV, a microwave and small fridge (which we didn't use), and the bed was great -- king-size and comfortable, and it didn't have the dreaded polyester bedspread which slides down onto the floor.  It had nice, crisp white sheets and nice pillows, which all looked great.  The bathroom counter and the shower walls looked like granite -- maybe they weren't, but they looked very nice.  The shower was super clean, a big plus in my book.  Nice, fluffy white towels.  The air conditioning worked amazingly well -- we got our room really cold (it was horribly hot and humid outside).  All this, and our room was only $75 plus tax!We mentioned to the desk clerk when we checked out how nice the hotel was, and he said that the owner takes great pride in keeping everything in tip-top shape and that he does much of the maintenance himself.  It really shows.  We didn't go in the pool, but it looked sparkling clean and even had a nice little stone grouping with a little waterfall.If you need a hotel in Angleton, stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this Best Western in Angleton a week ago for a family function.  I've stayed in many Best Westerns in the past, on birding trips (my birding trip travel partner is a member of their frequent guest program and so always wanted to stay at Best Westerns, and I can say that many of them were just awful).  But this one was totally different.  This hotel is 13 years old, but our room looked like it was brand new.  It was spotless and everything was in great shape -- flat screen TV, a microwave and small fridge (which we didn't use), and the bed was great -- king-size and comfortable, and it didn't have the dreaded polyester bedspread which slides down onto the floor.  It had nice, crisp white sheets and nice pillows, which all looked great.  The bathroom counter and the shower walls looked like granite -- maybe they weren't, but they looked very nice.  The shower was super clean, a big plus in my book.  Nice, fluffy white towels.  The air conditioning worked amazingly well -- we got our room really cold (it was horribly hot and humid outside).  All this, and our room was only $75 plus tax!
+We mentioned to the desk clerk when we checked out how nice the hotel was, and he said that the owner takes great pride in keeping everything in tip-top shape and that he does...My husband and I stayed at this Best Western in Angleton a week ago for a family function.  I've stayed in many Best Westerns in the past, on birding trips (my birding trip travel partner is a member of their frequent guest program and so always wanted to stay at Best Westerns, and I can say that many of them were just awful).  But this one was totally different.  This hotel is 13 years old, but our room looked like it was brand new.  It was spotless and everything was in great shape -- flat screen TV, a microwave and small fridge (which we didn't use), and the bed was great -- king-size and comfortable, and it didn't have the dreaded polyester bedspread which slides down onto the floor.  It had nice, crisp white sheets and nice pillows, which all looked great.  The bathroom counter and the shower walls looked like granite -- maybe they weren't, but they looked very nice.  The shower was super clean, a big plus in my book.  Nice, fluffy white towels.  The air conditioning worked amazingly well -- we got our room really cold (it was horribly hot and humid outside).  All this, and our room was only $75 plus tax!We mentioned to the desk clerk when we checked out how nice the hotel was, and he said that the owner takes great pride in keeping everything in tip-top shape and that he does much of the maintenance himself.  It really shows.  We didn't go in the pool, but it looked sparkling clean and even had a nice little stone grouping with a little waterfall.If you need a hotel in Angleton, stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r214225824-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>214225824</t>
+  </si>
+  <si>
+    <t>Best bang for your buck</t>
+  </si>
+  <si>
+    <t>Highly recommend, nice accomodations, clean rooms, great breakfast, friendly staff, ideal location, Wal-Mart directly beside, Kroger across the street, many options for restaurants nearby.  Have stayed here many times and have not been disappointed.  They will even accomodate trailer/boat parking!MoreShow less</t>
+  </si>
+  <si>
+    <t>Highly recommend, nice accomodations, clean rooms, great breakfast, friendly staff, ideal location, Wal-Mart directly beside, Kroger across the street, many options for restaurants nearby.  Have stayed here many times and have not been disappointed.  They will even accomodate trailer/boat parking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r206807949-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>206807949</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Our stay in Angleton Texas at the Best western .</t>
+  </si>
+  <si>
+    <t>We came to visit a prisoner at the Wayne Scott Prison which can only happen on a Saturday or Sunday, We have visited twice, and both times our stay at the Best Western Angleton Inn have been an excellent experience. There are many places to eat and shop for what you need close by. The rooms are clean and comfortable. The staff is kind and generous and treat ed us with respect. We will return to this hotel the next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded May 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2014</t>
+  </si>
+  <si>
+    <t>We came to visit a prisoner at the Wayne Scott Prison which can only happen on a Saturday or Sunday, We have visited twice, and both times our stay at the Best Western Angleton Inn have been an excellent experience. There are many places to eat and shop for what you need close by. The rooms are clean and comfortable. The staff is kind and generous and treat ed us with respect. We will return to this hotel the next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r206696365-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>206696365</t>
+  </si>
+  <si>
+    <t>very accommodating and close to everything in town</t>
+  </si>
+  <si>
+    <t>Beds were very comfortable, housekeeping was very nice and accommodating.  I stayed here for over 2 months and had a very pleasant stay. Angleton Inn is close to everything in town and I will stay again.  Staff is friendly, breakfast is great and opens early, and they are pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Beds were very comfortable, housekeeping was very nice and accommodating.  I stayed here for over 2 months and had a very pleasant stay. Angleton Inn is close to everything in town and I will stay again.  Staff is friendly, breakfast is great and opens early, and they are pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r206184761-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>206184761</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, price a bit high</t>
+  </si>
+  <si>
+    <t>My wife and I had a $50 Best Western coupon due to two previous stays in BW hotels, so we were looking for a BW for our quick trip to see family in the area.  We selected Angleton Inn based on TripAdvisor reviews.
+The hotel is located at the north end of Angleton, just north of a WalMart.  Our check-in was handled very nicely by Alexandria, who was able to accept our coupon without problem.  The lobby was clean.
+Our room was quite clean, and had only the smallest hint of an air freshening product, There was a separate seating area at the entrance to the room, new TV with DirectTV as the provider, a small refrigerator and microwave, all of which we used during our stay.
+After getting into our room, we went out to the pool to let our grandson play and let us relax.  The pool area was also quite clean.
+Bed was comfortable (a bit firmer than I like, but well within tolerances), and all was quiet.  (There was an event going at MSR Houston, and some of the staff was staying at the hotel.  It seemed like a very professional group of folks.)  The room's air conditioning unit was separated from the sleeping area by the seating area, which help baffle direct drafts and also made the noise unobtrusive.
+Breakfast was as advertised, with scrambled eggs and sausage links as the prepared hot items,  I...My wife and I had a $50 Best Western coupon due to two previous stays in BW hotels, so we were looking for a BW for our quick trip to see family in the area.  We selected Angleton Inn based on TripAdvisor reviews.The hotel is located at the north end of Angleton, just north of a WalMart.  Our check-in was handled very nicely by Alexandria, who was able to accept our coupon without problem.  The lobby was clean.Our room was quite clean, and had only the smallest hint of an air freshening product, There was a separate seating area at the entrance to the room, new TV with DirectTV as the provider, a small refrigerator and microwave, all of which we used during our stay.After getting into our room, we went out to the pool to let our grandson play and let us relax.  The pool area was also quite clean.Bed was comfortable (a bit firmer than I like, but well within tolerances), and all was quiet.  (There was an event going at MSR Houston, and some of the staff was staying at the hotel.  It seemed like a very professional group of folks.)  The room's air conditioning unit was separated from the sleeping area by the seating area, which help baffle direct drafts and also made the noise unobtrusive.Breakfast was as advertised, with scrambled eggs and sausage links as the prepared hot items,  I would rate the breakfast as very good compared to the typical fare.Nick, the general manager, was taking care of the breakfast and the front desk on Sunday morning.  A very good experience.My only 'con' is the value.  The Angleton/Lake Jackson area seems to have very high prices, and new hotel properties are being built.  So, in this market, the Angleton Inn was just on the high side of average; AAA rate for a king nonsmoking was $100 including taxes..  I am hopeful that as new properties come on line, some market pressure will bring prices down $10-15, and make weekend deals more abundant.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I had a $50 Best Western coupon due to two previous stays in BW hotels, so we were looking for a BW for our quick trip to see family in the area.  We selected Angleton Inn based on TripAdvisor reviews.
+The hotel is located at the north end of Angleton, just north of a WalMart.  Our check-in was handled very nicely by Alexandria, who was able to accept our coupon without problem.  The lobby was clean.
+Our room was quite clean, and had only the smallest hint of an air freshening product, There was a separate seating area at the entrance to the room, new TV with DirectTV as the provider, a small refrigerator and microwave, all of which we used during our stay.
+After getting into our room, we went out to the pool to let our grandson play and let us relax.  The pool area was also quite clean.
+Bed was comfortable (a bit firmer than I like, but well within tolerances), and all was quiet.  (There was an event going at MSR Houston, and some of the staff was staying at the hotel.  It seemed like a very professional group of folks.)  The room's air conditioning unit was separated from the sleeping area by the seating area, which help baffle direct drafts and also made the noise unobtrusive.
+Breakfast was as advertised, with scrambled eggs and sausage links as the prepared hot items,  I...My wife and I had a $50 Best Western coupon due to two previous stays in BW hotels, so we were looking for a BW for our quick trip to see family in the area.  We selected Angleton Inn based on TripAdvisor reviews.The hotel is located at the north end of Angleton, just north of a WalMart.  Our check-in was handled very nicely by Alexandria, who was able to accept our coupon without problem.  The lobby was clean.Our room was quite clean, and had only the smallest hint of an air freshening product, There was a separate seating area at the entrance to the room, new TV with DirectTV as the provider, a small refrigerator and microwave, all of which we used during our stay.After getting into our room, we went out to the pool to let our grandson play and let us relax.  The pool area was also quite clean.Bed was comfortable (a bit firmer than I like, but well within tolerances), and all was quiet.  (There was an event going at MSR Houston, and some of the staff was staying at the hotel.  It seemed like a very professional group of folks.)  The room's air conditioning unit was separated from the sleeping area by the seating area, which help baffle direct drafts and also made the noise unobtrusive.Breakfast was as advertised, with scrambled eggs and sausage links as the prepared hot items,  I would rate the breakfast as very good compared to the typical fare.Nick, the general manager, was taking care of the breakfast and the front desk on Sunday morning.  A very good experience.My only 'con' is the value.  The Angleton/Lake Jackson area seems to have very high prices, and new hotel properties are being built.  So, in this market, the Angleton Inn was just on the high side of average; AAA rate for a king nonsmoking was $100 including taxes..  I am hopeful that as new properties come on line, some market pressure will bring prices down $10-15, and make weekend deals more abundant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r201499191-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>201499191</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>will stay again</t>
+  </si>
+  <si>
+    <t>From the moment we checked in untill we checked out we were well taken care of.  The only ting I have to complain about is that the new beds were a little to hardfor me, but my husband loved the bed!  We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>From the moment we checked in untill we checked out we were well taken care of.  The only ting I have to complain about is that the new beds were a little to hardfor me, but my husband loved the bed!  We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r200838460-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>200838460</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff, great rooms!!</t>
+  </si>
+  <si>
+    <t>My stay was great! They staff that check me in was helpful, and the breakfast lady (margarita) was nice and friendly! My room was great and the beds are real comfortable! Will stay here everytime I come to angleton!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was great! They staff that check me in was helpful, and the breakfast lady (margarita) was nice and friendly! My room was great and the beds are real comfortable! Will stay here everytime I come to angleton!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r200833409-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>200833409</t>
+  </si>
+  <si>
+    <t>Comfortable clean great location</t>
+  </si>
+  <si>
+    <t>I stay at this best western every visit to angleton. I find the rooms clean and comfortable. The staff is always friendly and helpful. Great location next to Wal-Mart for any last minute purchases and wonderful selection of restaurants nearby. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this best western every visit to angleton. I find the rooms clean and comfortable. The staff is always friendly and helpful. Great location next to Wal-Mart for any last minute purchases and wonderful selection of restaurants nearby. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r194426818-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>194426818</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Excellent Value!</t>
+  </si>
+  <si>
+    <t>Unlike some of the other hotels in Angleton, the Best Western Angleton Inn provided us with a surprisingly positive experience. Check-in was fast and efficient, the hotel staff were very friendly, and the rooms were clean and comfortable. Even our 4am-arrival was not a problem at all, and we were soundly asleep in comfortable beds within minutes of arrival. The room looked very clean, and all items looked reasonably new and actually worked. The rest room was very clean, and the shower had good water pressure with lots of hot water. This is definitely the best hotel experience that we have had in that town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Unlike some of the other hotels in Angleton, the Best Western Angleton Inn provided us with a surprisingly positive experience. Check-in was fast and efficient, the hotel staff were very friendly, and the rooms were clean and comfortable. Even our 4am-arrival was not a problem at all, and we were soundly asleep in comfortable beds within minutes of arrival. The room looked very clean, and all items looked reasonably new and actually worked. The rest room was very clean, and the shower had good water pressure with lots of hot water. This is definitely the best hotel experience that we have had in that town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r193942476-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>193942476</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience</t>
+  </si>
+  <si>
+    <t>Upon arrival there were no problems with the King Suite. It was very clean and spacious. 3 days into our stay, the king bed was replaced with a brand new mattress which was very comfortable. Housekeeping was great We stayed for 2 and a half weeks on business so I didn't have housekeeping clean the room everyday, but they were great when it came time to tidy up 3 days worth of mess from my 2 children. Staff was awesome, the manager came in a cleaned my room one day because i had slept through housekeeping's shift and forgot to remove the do not disturb sign. Overall the experience was great and definitely took a lot of the stress away that comes with traveling for business. The only downfall to the hotel was lack of parking, but there were a lot of workers staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Upon arrival there were no problems with the King Suite. It was very clean and spacious. 3 days into our stay, the king bed was replaced with a brand new mattress which was very comfortable. Housekeeping was great We stayed for 2 and a half weeks on business so I didn't have housekeeping clean the room everyday, but they were great when it came time to tidy up 3 days worth of mess from my 2 children. Staff was awesome, the manager came in a cleaned my room one day because i had slept through housekeeping's shift and forgot to remove the do not disturb sign. Overall the experience was great and definitely took a lot of the stress away that comes with traveling for business. The only downfall to the hotel was lack of parking, but there were a lot of workers staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r193639120-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>193639120</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>More than I expected</t>
+  </si>
+  <si>
+    <t>Working in the area, I needed a place to stay for a few nights. I drove around checking out the area to find a clean, safe place. From the street, it looked o.k. So I thought I would try it. Very clean updated rooms. Beds were new and apparantly replaced the day Before I got there. Several places to eat very close, and a variety of foods. I've now spent about 4 nights over the last month, and plan on staying again.  Breakfast was typical, nothing special or different.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Working in the area, I needed a place to stay for a few nights. I drove around checking out the area to find a clean, safe place. From the street, it looked o.k. So I thought I would try it. Very clean updated rooms. Beds were new and apparantly replaced the day Before I got there. Several places to eat very close, and a variety of foods. I've now spent about 4 nights over the last month, and plan on staying again.  Breakfast was typical, nothing special or different.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r192072038-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>192072038</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE MOTEL</t>
+  </si>
+  <si>
+    <t>A terrible experience.  Save yourself the aggravation and choose somewhere else.  ANYWHERE ELSE.   The lights did not work, the sink did not work, the food was disgusting and probably not safe, the television was spotty at best and only accessed a few stations (NBC occasionally, spanish speaking channels and one "specialty" station, the Internet kept cutting out and would not allow me to reconnect.  The room was noisy.  The staff tried to be helpful and did the best they could but this place is a dump and anywhere else has to be better.  I typically stay at hampton Inns and wish I had done so this time.  Even though this motel is close to MSR Houston, it is NOT worth the convenience to suffer like this!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded January 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2014</t>
+  </si>
+  <si>
+    <t>A terrible experience.  Save yourself the aggravation and choose somewhere else.  ANYWHERE ELSE.   The lights did not work, the sink did not work, the food was disgusting and probably not safe, the television was spotty at best and only accessed a few stations (NBC occasionally, spanish speaking channels and one "specialty" station, the Internet kept cutting out and would not allow me to reconnect.  The room was noisy.  The staff tried to be helpful and did the best they could but this place is a dump and anywhere else has to be better.  I typically stay at hampton Inns and wish I had done so this time.  Even though this motel is close to MSR Houston, it is NOT worth the convenience to suffer like this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r187137739-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>187137739</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Angelton, Texas  Best Western</t>
+  </si>
+  <si>
+    <t>Great staff and very clean conditions. Safe location and the bed was very comfy too. Would recommend if your in this area. Near to Texas gulf coast line and Lake Jackson Texas. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Great staff and very clean conditions. Safe location and the bed was very comfy too. Would recommend if your in this area. Near to Texas gulf coast line and Lake Jackson Texas. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r185920923-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>185920923</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>First night a nightmare, Second night great.</t>
+  </si>
+  <si>
+    <t>This trip only.  I was in West Columbia for a funeral.  Have stayed in BW before with great experiences.  Decided to go to BW (others in family were at La Quinta.  After waking 3 times, hearing water dripping and thinking it was raining, decided to get up and check it out at 3 AM.  No rain so started for bathroom.  When I stepped off carpet, stepped in water.  Turned on light (probably not a smart thing to do) and found water coming out light in ceiling in the bathroom.  I think this could have been very dangerous!!  Why was it not fixed when reported before.Called front desk and was told it was the shower above me and she would call them to turn it off.  There was nothing else she could do.  Finally, at 4:15 they turned the shower off.  After using all the towels I had, it did not soak up the water.  Each time you went to the bathroom, you stepped in water, water dripped on you, the toilet would be wet and it was not pleasant.  Next morning I went to desk.  The day clerk was so nice and went out of her way to make the rest of my stay enjoyable.  She had a room cleaned for me, left me a little package of water and snacks and had the cleaning ladies move my things.  Said the manager said he would knock off $10 from the...This trip only.  I was in West Columbia for a funeral.  Have stayed in BW before with great experiences.  Decided to go to BW (others in family were at La Quinta.  After waking 3 times, hearing water dripping and thinking it was raining, decided to get up and check it out at 3 AM.  No rain so started for bathroom.  When I stepped off carpet, stepped in water.  Turned on light (probably not a smart thing to do) and found water coming out light in ceiling in the bathroom.  I think this could have been very dangerous!!  Why was it not fixed when reported before.Called front desk and was told it was the shower above me and she would call them to turn it off.  There was nothing else she could do.  Finally, at 4:15 they turned the shower off.  After using all the towels I had, it did not soak up the water.  Each time you went to the bathroom, you stepped in water, water dripped on you, the toilet would be wet and it was not pleasant.  Next morning I went to desk.  The day clerk was so nice and went out of her way to make the rest of my stay enjoyable.  She had a room cleaned for me, left me a little package of water and snacks and had the cleaning ladies move my things.  Said the manager said he would knock off $10 from the rate.  I said at least half-price.  He agreed.  I think a good manager would have said there would be no charge for that night, without me asking for any compensation.  The cleaning ladies did a wonderful job and I told them how much I appreciated it.  The day clerk and cleaning ladies are the only reason I would give this hotel another chance.  They were super and the second night was very good.  Hope he gave these ladies a raise!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2013</t>
+  </si>
+  <si>
+    <t>This trip only.  I was in West Columbia for a funeral.  Have stayed in BW before with great experiences.  Decided to go to BW (others in family were at La Quinta.  After waking 3 times, hearing water dripping and thinking it was raining, decided to get up and check it out at 3 AM.  No rain so started for bathroom.  When I stepped off carpet, stepped in water.  Turned on light (probably not a smart thing to do) and found water coming out light in ceiling in the bathroom.  I think this could have been very dangerous!!  Why was it not fixed when reported before.Called front desk and was told it was the shower above me and she would call them to turn it off.  There was nothing else she could do.  Finally, at 4:15 they turned the shower off.  After using all the towels I had, it did not soak up the water.  Each time you went to the bathroom, you stepped in water, water dripped on you, the toilet would be wet and it was not pleasant.  Next morning I went to desk.  The day clerk was so nice and went out of her way to make the rest of my stay enjoyable.  She had a room cleaned for me, left me a little package of water and snacks and had the cleaning ladies move my things.  Said the manager said he would knock off $10 from the...This trip only.  I was in West Columbia for a funeral.  Have stayed in BW before with great experiences.  Decided to go to BW (others in family were at La Quinta.  After waking 3 times, hearing water dripping and thinking it was raining, decided to get up and check it out at 3 AM.  No rain so started for bathroom.  When I stepped off carpet, stepped in water.  Turned on light (probably not a smart thing to do) and found water coming out light in ceiling in the bathroom.  I think this could have been very dangerous!!  Why was it not fixed when reported before.Called front desk and was told it was the shower above me and she would call them to turn it off.  There was nothing else she could do.  Finally, at 4:15 they turned the shower off.  After using all the towels I had, it did not soak up the water.  Each time you went to the bathroom, you stepped in water, water dripped on you, the toilet would be wet and it was not pleasant.  Next morning I went to desk.  The day clerk was so nice and went out of her way to make the rest of my stay enjoyable.  She had a room cleaned for me, left me a little package of water and snacks and had the cleaning ladies move my things.  Said the manager said he would knock off $10 from the rate.  I said at least half-price.  He agreed.  I think a good manager would have said there would be no charge for that night, without me asking for any compensation.  The cleaning ladies did a wonderful job and I told them how much I appreciated it.  The day clerk and cleaning ladies are the only reason I would give this hotel another chance.  They were super and the second night was very good.  Hope he gave these ladies a raise!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r183603706-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>183603706</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We spent a night in Angleton while looking into history in the area. The staff was courteous and helpful, the room comfortable and clean and breakfast hit the spot. It was quiet there which I like. It's a terrific place to spent time if you're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>We spent a night in Angleton while looking into history in the area. The staff was courteous and helpful, the room comfortable and clean and breakfast hit the spot. It was quiet there which I like. It's a terrific place to spent time if you're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r178661568-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>178661568</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms and comfortable beds</t>
+  </si>
+  <si>
+    <t>The room was very clean, the bed was very comfortable, the staff was friendly and all the amenities worked flawlessly. What more can I say, once again Best Western lives up to their promise and gives me value for service.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded September 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2013</t>
+  </si>
+  <si>
+    <t>The room was very clean, the bed was very comfortable, the staff was friendly and all the amenities worked flawlessly. What more can I say, once again Best Western lives up to their promise and gives me value for service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r177610615-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>177610615</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>It was "OK"</t>
+  </si>
+  <si>
+    <t>This hotel was rated as a 2 1/2 star and if you are looking for a 2 1/2 star you'll probably be underwhelmed/slightly dissatisfied.  It is more like a 2 star.  Room was very basic.  It had a king sized bed with 4 small pillows of a good comfort level, a "kitchen" table with 2 chairs, a desk with cheap computer chair, and the usual dresser type item, and a mini fridge / microwave.  They also had a coffee maker and iron/ironing board but I didn't utilize them.  I did notice it was a pretty crummy coffee maker with some generic coffee.  The bed was ok comfort.  The area seemed reasonably safe.  The A/C was on the loud side and confusing.  One of the fridge feet was broken off so it didn't stand upright.  The shower knob was messed up.  The room smelled a bit musty.  The decor was very basic and in "medium" condition.  If you are ok with a 2 star room and can get it for a good price I'd stay there... I wouldn't exactly bring a romantic date or a business client/counterpart to the room but if you are just looking for a safe room for the night, it'll work.  Breakfast was on the skimpy side but it was there... Oh the wifi was kind of flaky also but it was there...MoreShow less</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was rated as a 2 1/2 star and if you are looking for a 2 1/2 star you'll probably be underwhelmed/slightly dissatisfied.  It is more like a 2 star.  Room was very basic.  It had a king sized bed with 4 small pillows of a good comfort level, a "kitchen" table with 2 chairs, a desk with cheap computer chair, and the usual dresser type item, and a mini fridge / microwave.  They also had a coffee maker and iron/ironing board but I didn't utilize them.  I did notice it was a pretty crummy coffee maker with some generic coffee.  The bed was ok comfort.  The area seemed reasonably safe.  The A/C was on the loud side and confusing.  One of the fridge feet was broken off so it didn't stand upright.  The shower knob was messed up.  The room smelled a bit musty.  The decor was very basic and in "medium" condition.  If you are ok with a 2 star room and can get it for a good price I'd stay there... I wouldn't exactly bring a romantic date or a business client/counterpart to the room but if you are just looking for a safe room for the night, it'll work.  Breakfast was on the skimpy side but it was there... Oh the wifi was kind of flaky also but it was there...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r174431510-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>174431510</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Angleton BW is good choice</t>
+  </si>
+  <si>
+    <t>If your trip takes you to Angleton, this property is a good choice. Walmart and other dining options are close by. The rooms were comfortabkle and the A/C blows cold! Staff was quite pleasant and seemd to really care about my visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>If your trip takes you to Angleton, this property is a good choice. Walmart and other dining options are close by. The rooms were comfortabkle and the A/C blows cold! Staff was quite pleasant and seemd to really care about my visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r167250015-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>167250015</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Son's wedding</t>
+  </si>
+  <si>
+    <t>Thank you for making our very happy visit to TX relaxing &amp; fun. My son and his beautiful fiancee got married 7/6. Jeff &amp; I arrived the afternoon before and the woman at check in was friendly and helpful. The room, a smoking room (thank you) was clean and had everything we needed for a long weekend. The housekeeping staff was thoughtful enough to help me with my drying clothes on the A/C by putting a pillow on the top of my clothes. The bed was awesome! It put us to sleep quickly and it was hard to leave in the morning. Our 3 granddaughters that we were visiting Loved the pool!! As a supervisor with another chain, I was very happy with this visit and will stay here every time we get to Angleton.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Thank you for making our very happy visit to TX relaxing &amp; fun. My son and his beautiful fiancee got married 7/6. Jeff &amp; I arrived the afternoon before and the woman at check in was friendly and helpful. The room, a smoking room (thank you) was clean and had everything we needed for a long weekend. The housekeeping staff was thoughtful enough to help me with my drying clothes on the A/C by putting a pillow on the top of my clothes. The bed was awesome! It put us to sleep quickly and it was hard to leave in the morning. Our 3 granddaughters that we were visiting Loved the pool!! As a supervisor with another chain, I was very happy with this visit and will stay here every time we get to Angleton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r162402195-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>162402195</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Angleton, Texas Business Trip</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. Bed was comfortable. Personel were very friendly and helpful. Chair for the desk was a little rickety and uncomfortable. Overall a pleasent experience and I would definitely plan to use the hotel on my next trip to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Sam B, General Manager at Best Western Angleton Inn, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. Bed was comfortable. Personel were very friendly and helpful. Chair for the desk was a little rickety and uncomfortable. Overall a pleasent experience and I would definitely plan to use the hotel on my next trip to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r151883218-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>151883218</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>BW Angleton, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel nice, Room excellent, breakfast lacking. Room and bed very good, bed excellent, did not use hot tub, but it was nice. Employee's very nice at check in and check out. Will definately stay here again if I am working in the area. </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r145246595-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>145246595</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Standard Best Western</t>
+  </si>
+  <si>
+    <t>I chose this Best Western during my visit to Angleton as it was rated #1. This hotel has well-maintained, clean grounds and public areas and a friendly, helpful staff. Exterior access to rooms. My room was large, very clean, and quiet, with all the amenities. Nice size flat-screen TV with good number of channels and music. Internet was very fast. Unfortunately, I found my king bed mattress to be hard and lumpy at the same time and I did not spent a comfortable night. Also, I found the room dim, and the florescent, energy-saving bulbs in the room unpleasant. Standard continental breakfast with cereal, pastries, fruit, make-your-own waffles, etc. The hotel is located next to Walmart, with gas stations and and a number of dining places within a short drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I chose this Best Western during my visit to Angleton as it was rated #1. This hotel has well-maintained, clean grounds and public areas and a friendly, helpful staff. Exterior access to rooms. My room was large, very clean, and quiet, with all the amenities. Nice size flat-screen TV with good number of channels and music. Internet was very fast. Unfortunately, I found my king bed mattress to be hard and lumpy at the same time and I did not spent a comfortable night. Also, I found the room dim, and the florescent, energy-saving bulbs in the room unpleasant. Standard continental breakfast with cereal, pastries, fruit, make-your-own waffles, etc. The hotel is located next to Walmart, with gas stations and and a number of dining places within a short drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r144948803-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>144948803</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable motel - would gladly stay here again!</t>
+  </si>
+  <si>
+    <t>We chose this property only because we wanted to visit Galveston, but all hotels in town were booked full, and this was one of the closest properties with availability. We enjoyed our stay, and would stay here again without hesitation. This hotel's biggest strength is its staff. We reserved three rooms, two of which were for elderly family members who are somewhat mobility challenged. The staff did a great job of ensuring the mobility challenged members of our family were in rooms on the ground floor, close to the front. The next morning, when we were checking out, the front desk clerk did a great job of explaining the most scenic route from Angleton to Galveston: the Blue Water Highway, which runs along the Gulf of Mexico from Freeport (about 20 miles from Angleton) to Galveston. The clerk on duty the afternoon we checked in was very proactive in making sure the billing for our rooms was set up correctly (she even called me before I reached the hotel, to make sure everything would be in order when we arrived), and also gave us several good restaurant recommendations.Our rooms themselves were nicely decorated, and immaculately clean. The hotel grounds were so well landscaped that it seemed like one of the best landscaped buildings in Angleton. You will not regret choosing this property!MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this property only because we wanted to visit Galveston, but all hotels in town were booked full, and this was one of the closest properties with availability. We enjoyed our stay, and would stay here again without hesitation. This hotel's biggest strength is its staff. We reserved three rooms, two of which were for elderly family members who are somewhat mobility challenged. The staff did a great job of ensuring the mobility challenged members of our family were in rooms on the ground floor, close to the front. The next morning, when we were checking out, the front desk clerk did a great job of explaining the most scenic route from Angleton to Galveston: the Blue Water Highway, which runs along the Gulf of Mexico from Freeport (about 20 miles from Angleton) to Galveston. The clerk on duty the afternoon we checked in was very proactive in making sure the billing for our rooms was set up correctly (she even called me before I reached the hotel, to make sure everything would be in order when we arrived), and also gave us several good restaurant recommendations.Our rooms themselves were nicely decorated, and immaculately clean. The hotel grounds were so well landscaped that it seemed like one of the best landscaped buildings in Angleton. You will not regret choosing this property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r139586662-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>139586662</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Excellent hotel, very clean, friendly staff and delicious breakfast.  Pool and property are immaculately maintained.  Highly recommend staying here if you're in the area, location is convenient to Houston and nearby attractions.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r132782371-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>132782371</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Low price, low quality...</t>
+  </si>
+  <si>
+    <t>First of all, this is a motel, not a hotel. You drive in the back and park your car if front of the room door. I arrived here way past midnight and found the receptionist in a secure bullet-proof glass enclosure. I am of course concerned about the well-being of the staff, and would certainly not have liked to see them in harm's way, in the open, but the fact that they needed a bunker to be secure triggered in my mind the thought that, maybe, I shouldn't be there, at all. After all, I had no bunker. I got my key and drove to the back, to find a room with very strong smell of cigarette smoke. It was very late, I was tired, I didn't complain and went to bed instead. In the morning I found out that I had been mistakenly given a smoking room, against my very specific request. The air conditioning wasn't overly quiet, but the main problem was outside: likely a poorly secured metal street sign that rhythmically banged against its pole, the whole night. Breakfast was underwhelming, a small selection of mostly pre-packeged stuff, barely anything fresh. Overall, at $75 a night, this was surely inexpensive, but it definitely wasn't a good experience. Would I stay there again? Hell no, I'd rather sleep in the car on a campground.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>First of all, this is a motel, not a hotel. You drive in the back and park your car if front of the room door. I arrived here way past midnight and found the receptionist in a secure bullet-proof glass enclosure. I am of course concerned about the well-being of the staff, and would certainly not have liked to see them in harm's way, in the open, but the fact that they needed a bunker to be secure triggered in my mind the thought that, maybe, I shouldn't be there, at all. After all, I had no bunker. I got my key and drove to the back, to find a room with very strong smell of cigarette smoke. It was very late, I was tired, I didn't complain and went to bed instead. In the morning I found out that I had been mistakenly given a smoking room, against my very specific request. The air conditioning wasn't overly quiet, but the main problem was outside: likely a poorly secured metal street sign that rhythmically banged against its pole, the whole night. Breakfast was underwhelming, a small selection of mostly pre-packeged stuff, barely anything fresh. Overall, at $75 a night, this was surely inexpensive, but it definitely wasn't a good experience. Would I stay there again? Hell no, I'd rather sleep in the car on a campground.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r123020176-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>123020176</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>I was very pleased</t>
+  </si>
+  <si>
+    <t>We got into Angleton late at night and didn't know the town so went to first good looking motel we could find - but quoted price was $10 more than it showed online, wifi wasn't working, and long ways from a restaurant.  So drove around and found the Angleton Inn.  Price was a little less than quoted online.  We were very pleased - quiet, roomy suite room for small room price, good wifi connection, clean, decent waffle/continental breakfast foods available, and two good restaurants within a block.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r104363677-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>104363677</t>
+  </si>
+  <si>
+    <t>04/17/2011</t>
+  </si>
+  <si>
+    <t>Not the "best" western</t>
+  </si>
+  <si>
+    <t>The best thing about this place is the coffee. We rented the king suite. The room seemed nice at first look, but upon inspection we noticed black mold growing on the curtains over the air conditioning unit. Also they take a very minimalist approach to covering the bed. There was no mattress/dust cover on the mattress, only a single folded sheet that separated my partner and I from the mattress. Needless to say the single sheet moved during the night and was no longer in place by morning, leaving the mattress bare. These two issues made for terrible allergy problems for our two nights of stay. At checkout we informed the front desk of the mold issues and how it caused us terrible allergies, and they said "they would look into it.
+The free breakfast was a little below average. The eggs that they offered were in the form of prepackaged microwaveable taquitos...
+There are numerous truckers that use this inn and park their cargo less big rigs in the parking lot, leaving few parking spaces open. I would hate to see the parking situation if the inn was completely booked.  
+The free wifi Internet was not working in our room on the first night, although it was working fine on the second night.
+One good thing is that the rooms seemed to be pretty well insulated from noise.  There was loud music blaring from one of the buildings in...The best thing about this place is the coffee. We rented the king suite. The room seemed nice at first look, but upon inspection we noticed black mold growing on the curtains over the air conditioning unit. Also they take a very minimalist approach to covering the bed. There was no mattress/dust cover on the mattress, only a single folded sheet that separated my partner and I from the mattress. Needless to say the single sheet moved during the night and was no longer in place by morning, leaving the mattress bare. These two issues made for terrible allergy problems for our two nights of stay. At checkout we informed the front desk of the mold issues and how it caused us terrible allergies, and they said "they would look into it.The free breakfast was a little below average. The eggs that they offered were in the form of prepackaged microwaveable taquitos...There are numerous truckers that use this inn and park their cargo less big rigs in the parking lot, leaving few parking spaces open. I would hate to see the parking situation if the inn was completely booked.  The free wifi Internet was not working in our room on the first night, although it was working fine on the second night.One good thing is that the rooms seemed to be pretty well insulated from noise.  There was loud music blaring from one of the buildings in the shopping center in the walmart parking lot, and we could not hear it in our room.Overall this inn was below average and below our expectations, and we would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>The best thing about this place is the coffee. We rented the king suite. The room seemed nice at first look, but upon inspection we noticed black mold growing on the curtains over the air conditioning unit. Also they take a very minimalist approach to covering the bed. There was no mattress/dust cover on the mattress, only a single folded sheet that separated my partner and I from the mattress. Needless to say the single sheet moved during the night and was no longer in place by morning, leaving the mattress bare. These two issues made for terrible allergy problems for our two nights of stay. At checkout we informed the front desk of the mold issues and how it caused us terrible allergies, and they said "they would look into it.
+The free breakfast was a little below average. The eggs that they offered were in the form of prepackaged microwaveable taquitos...
+There are numerous truckers that use this inn and park their cargo less big rigs in the parking lot, leaving few parking spaces open. I would hate to see the parking situation if the inn was completely booked.  
+The free wifi Internet was not working in our room on the first night, although it was working fine on the second night.
+One good thing is that the rooms seemed to be pretty well insulated from noise.  There was loud music blaring from one of the buildings in...The best thing about this place is the coffee. We rented the king suite. The room seemed nice at first look, but upon inspection we noticed black mold growing on the curtains over the air conditioning unit. Also they take a very minimalist approach to covering the bed. There was no mattress/dust cover on the mattress, only a single folded sheet that separated my partner and I from the mattress. Needless to say the single sheet moved during the night and was no longer in place by morning, leaving the mattress bare. These two issues made for terrible allergy problems for our two nights of stay. At checkout we informed the front desk of the mold issues and how it caused us terrible allergies, and they said "they would look into it.The free breakfast was a little below average. The eggs that they offered were in the form of prepackaged microwaveable taquitos...There are numerous truckers that use this inn and park their cargo less big rigs in the parking lot, leaving few parking spaces open. I would hate to see the parking situation if the inn was completely booked.  The free wifi Internet was not working in our room on the first night, although it was working fine on the second night.One good thing is that the rooms seemed to be pretty well insulated from noise.  There was loud music blaring from one of the buildings in the shopping center in the walmart parking lot, and we could not hear it in our room.Overall this inn was below average and below our expectations, and we would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r92718065-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>92718065</t>
+  </si>
+  <si>
+    <t>01/12/2011</t>
+  </si>
+  <si>
+    <t>Really enjoyed my stay, relaxed and comfortable</t>
+  </si>
+  <si>
+    <t>Hotel was located in a prime spot, near dining and entertainment within a mile, also the courthouse and business districts where also within a mile of the hotel.  I was warmly greeted by the staff and check-in and check-out were very speedy.  The rooms where inviting and comfortable.  The room was very clean which was a big plus, I throughly enjoyed my stay and have found a new home away from home.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30171-d106170-r39717353-Best_Western_Angleton_Inn-Angleton_Texas.html</t>
+  </si>
+  <si>
+    <t>39717353</t>
+  </si>
+  <si>
+    <t>09/03/2009</t>
+  </si>
+  <si>
+    <t>was ok</t>
+  </si>
+  <si>
+    <t>My family lives in area but due to A/C problem had to get a room for the night.Arrived about 7:30, quick check in and room was clean, beds were comfy. check out was just as quick and grabbed 2 muffins from small dinning area. Kids loved the muffins.This hotel is ok, thought $100 for a nights sleep was a little on the pricey side.I would stay here again if I had too and because it is cheaper then the newest hotel in area, I would recommend it.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2490,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2522,5992 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>200</v>
+      </c>
+      <c r="X26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>200</v>
+      </c>
+      <c r="X27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>200</v>
+      </c>
+      <c r="X28" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>264</v>
+      </c>
+      <c r="X29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="X30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>298</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>215</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>299</v>
+      </c>
+      <c r="X39" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>299</v>
+      </c>
+      <c r="X40" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>346</v>
+      </c>
+      <c r="X41" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>333</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>346</v>
+      </c>
+      <c r="X42" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>370</v>
+      </c>
+      <c r="X46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>215</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>392</v>
+      </c>
+      <c r="X48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>413</v>
+      </c>
+      <c r="X50" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>416</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>417</v>
+      </c>
+      <c r="J51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K51" t="s">
+        <v>419</v>
+      </c>
+      <c r="L51" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>421</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>422</v>
+      </c>
+      <c r="X51" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>426</v>
+      </c>
+      <c r="J52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>428</v>
+      </c>
+      <c r="L52" t="s">
+        <v>429</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>422</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>436</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>175</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>454</v>
+      </c>
+      <c r="X55" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>460</v>
+      </c>
+      <c r="L56" t="s">
+        <v>461</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>474</v>
+      </c>
+      <c r="J59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s">
+        <v>477</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+      <c r="K60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>485</v>
+      </c>
+      <c r="J61" t="s">
+        <v>480</v>
+      </c>
+      <c r="K61" t="s">
+        <v>486</v>
+      </c>
+      <c r="L61" t="s">
+        <v>487</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>454</v>
+      </c>
+      <c r="X61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>489</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>490</v>
+      </c>
+      <c r="J62" t="s">
+        <v>491</v>
+      </c>
+      <c r="K62" t="s">
+        <v>492</v>
+      </c>
+      <c r="L62" t="s">
+        <v>493</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>494</v>
+      </c>
+      <c r="O62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>495</v>
+      </c>
+      <c r="X62" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>491</v>
+      </c>
+      <c r="K63" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>502</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>495</v>
+      </c>
+      <c r="X63" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>505</v>
+      </c>
+      <c r="J64" t="s">
+        <v>506</v>
+      </c>
+      <c r="K64" t="s">
+        <v>507</v>
+      </c>
+      <c r="L64" t="s">
+        <v>508</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>494</v>
+      </c>
+      <c r="O64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>495</v>
+      </c>
+      <c r="X64" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>512</v>
+      </c>
+      <c r="K65" t="s">
+        <v>513</v>
+      </c>
+      <c r="L65" t="s">
+        <v>514</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>515</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
+      <c r="X65" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>519</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>520</v>
+      </c>
+      <c r="J66" t="s">
+        <v>521</v>
+      </c>
+      <c r="K66" t="s">
+        <v>522</v>
+      </c>
+      <c r="L66" t="s">
+        <v>523</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>527</v>
+      </c>
+      <c r="L67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>516</v>
+      </c>
+      <c r="X67" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>502</v>
+      </c>
+      <c r="O68" t="s">
+        <v>175</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>535</v>
+      </c>
+      <c r="X68" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>539</v>
+      </c>
+      <c r="J69" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s">
+        <v>542</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>502</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>543</v>
+      </c>
+      <c r="X69" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>546</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>547</v>
+      </c>
+      <c r="J70" t="s">
+        <v>548</v>
+      </c>
+      <c r="K70" t="s">
+        <v>549</v>
+      </c>
+      <c r="L70" t="s">
+        <v>550</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>551</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>543</v>
+      </c>
+      <c r="X70" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>553</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>554</v>
+      </c>
+      <c r="J71" t="s">
+        <v>555</v>
+      </c>
+      <c r="K71" t="s">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s">
+        <v>557</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>551</v>
+      </c>
+      <c r="O71" t="s">
+        <v>215</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>558</v>
+      </c>
+      <c r="X71" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>562</v>
+      </c>
+      <c r="J72" t="s">
+        <v>563</v>
+      </c>
+      <c r="K72" t="s">
+        <v>564</v>
+      </c>
+      <c r="L72" t="s">
+        <v>565</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>566</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>567</v>
+      </c>
+      <c r="X72" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>571</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>566</v>
+      </c>
+      <c r="O73" t="s">
+        <v>215</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>575</v>
+      </c>
+      <c r="X73" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>578</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>580</v>
+      </c>
+      <c r="K74" t="s">
+        <v>581</v>
+      </c>
+      <c r="L74" t="s">
+        <v>582</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>566</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>583</v>
+      </c>
+      <c r="X74" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>586</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>587</v>
+      </c>
+      <c r="J75" t="s">
+        <v>588</v>
+      </c>
+      <c r="K75" t="s">
+        <v>589</v>
+      </c>
+      <c r="L75" t="s">
+        <v>590</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>591</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>592</v>
+      </c>
+      <c r="X75" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>596</v>
+      </c>
+      <c r="J76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>598</v>
+      </c>
+      <c r="L76" t="s">
+        <v>599</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>591</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>600</v>
+      </c>
+      <c r="X76" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>603</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" t="s">
+        <v>605</v>
+      </c>
+      <c r="K77" t="s">
+        <v>606</v>
+      </c>
+      <c r="L77" t="s">
+        <v>607</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>608</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>609</v>
+      </c>
+      <c r="X77" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>612</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>613</v>
+      </c>
+      <c r="J78" t="s">
+        <v>614</v>
+      </c>
+      <c r="K78" t="s">
+        <v>615</v>
+      </c>
+      <c r="L78" t="s">
+        <v>616</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>617</v>
+      </c>
+      <c r="O78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>618</v>
+      </c>
+      <c r="X78" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>622</v>
+      </c>
+      <c r="J79" t="s">
+        <v>623</v>
+      </c>
+      <c r="K79" t="s">
+        <v>624</v>
+      </c>
+      <c r="L79" t="s">
+        <v>625</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>626</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>627</v>
+      </c>
+      <c r="X79" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>631</v>
+      </c>
+      <c r="J80" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" t="s">
+        <v>633</v>
+      </c>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>635</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>636</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>637</v>
+      </c>
+      <c r="J81" t="s">
+        <v>638</v>
+      </c>
+      <c r="K81" t="s">
+        <v>639</v>
+      </c>
+      <c r="L81" t="s">
+        <v>640</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>641</v>
+      </c>
+      <c r="O81" t="s">
+        <v>215</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>643</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>644</v>
+      </c>
+      <c r="J82" t="s">
+        <v>645</v>
+      </c>
+      <c r="K82" t="s">
+        <v>646</v>
+      </c>
+      <c r="L82" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>641</v>
+      </c>
+      <c r="O82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>654</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>655</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>656</v>
+      </c>
+      <c r="J84" t="s">
+        <v>657</v>
+      </c>
+      <c r="K84" t="s">
+        <v>658</v>
+      </c>
+      <c r="L84" t="s">
+        <v>659</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>662</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>663</v>
+      </c>
+      <c r="J85" t="s">
+        <v>664</v>
+      </c>
+      <c r="K85" t="s">
+        <v>665</v>
+      </c>
+      <c r="L85" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>667</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>668</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>669</v>
+      </c>
+      <c r="J86" t="s">
+        <v>670</v>
+      </c>
+      <c r="K86" t="s">
+        <v>671</v>
+      </c>
+      <c r="L86" t="s">
+        <v>672</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>673</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>675</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>676</v>
+      </c>
+      <c r="J87" t="s">
+        <v>677</v>
+      </c>
+      <c r="K87" t="s">
+        <v>678</v>
+      </c>
+      <c r="L87" t="s">
+        <v>679</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>680</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33742</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>681</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>682</v>
+      </c>
+      <c r="J88" t="s">
+        <v>683</v>
+      </c>
+      <c r="K88" t="s">
+        <v>684</v>
+      </c>
+      <c r="L88" t="s">
+        <v>685</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>686</v>
+      </c>
+      <c r="O88" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
